--- a/po_analysis_by_asin/B098Q4M4WH_po_data.xlsx
+++ b/po_analysis_by_asin/B098Q4M4WH_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,9 +452,249 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45355</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B32" t="n">
         <v>240</v>
       </c>
     </row>
@@ -469,7 +709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,9 +731,97 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45352</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44985.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45016.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45077.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45107.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45138.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B13" t="n">
         <v>240</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B098Q4M4WH_po_data.xlsx
+++ b/po_analysis_by_asin/B098Q4M4WH_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -690,14 +690,6 @@
         <v>760</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45361.99999999999</v>
-      </c>
-      <c r="B32" t="n">
-        <v>240</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -709,7 +701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -817,14 +809,6 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B13" t="n">
-        <v>240</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B098Q4M4WH_po_data.xlsx
+++ b/po_analysis_by_asin/B098Q4M4WH_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -717,7 +718,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -807,6 +808,579 @@
       </c>
       <c r="B12" t="n">
         <v>1420</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>354</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-208.2286980937472</v>
+      </c>
+      <c r="D2" t="n">
+        <v>868.6312420980323</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>351</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-187.1672404535002</v>
+      </c>
+      <c r="D3" t="n">
+        <v>899.0171705489258</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>347</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-178.0778418750713</v>
+      </c>
+      <c r="D4" t="n">
+        <v>911.6868974689785</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>344</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-195.1542428914131</v>
+      </c>
+      <c r="D5" t="n">
+        <v>881.7218199648644</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>331</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-184.8471530849855</v>
+      </c>
+      <c r="D6" t="n">
+        <v>862.6603246326122</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>328</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-184.1579277638263</v>
+      </c>
+      <c r="D7" t="n">
+        <v>831.01626703895</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>325</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-196.7439576609266</v>
+      </c>
+      <c r="D8" t="n">
+        <v>875.1104932552884</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>322</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-201.6306804453953</v>
+      </c>
+      <c r="D9" t="n">
+        <v>840.806588575429</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>315</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-208.0951435013897</v>
+      </c>
+      <c r="D10" t="n">
+        <v>836.9955258056837</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>309</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-285.2645484812236</v>
+      </c>
+      <c r="D11" t="n">
+        <v>868.7328635878393</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>306</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-233.7726793957667</v>
+      </c>
+      <c r="D12" t="n">
+        <v>843.4119671615338</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>303</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-242.2913035381042</v>
+      </c>
+      <c r="D13" t="n">
+        <v>846.6758932226683</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>296</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-200.5449423745298</v>
+      </c>
+      <c r="D14" t="n">
+        <v>830.8418854985707</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>293</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-229.0634337766708</v>
+      </c>
+      <c r="D15" t="n">
+        <v>807.8461073371377</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>287</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-235.2630168877782</v>
+      </c>
+      <c r="D16" t="n">
+        <v>802.6684052008096</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>283</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-218.2560847179437</v>
+      </c>
+      <c r="D17" t="n">
+        <v>799.5891463018836</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>280</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-232.3248514866688</v>
+      </c>
+      <c r="D18" t="n">
+        <v>820.3218075318283</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>277</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-246.141481440161</v>
+      </c>
+      <c r="D19" t="n">
+        <v>822.6901643669639</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>274</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-231.89499220334</v>
+      </c>
+      <c r="D20" t="n">
+        <v>823.3090892444192</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>271</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-276.1697007748388</v>
+      </c>
+      <c r="D21" t="n">
+        <v>796.3946792781634</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>261</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-270.3877319789033</v>
+      </c>
+      <c r="D22" t="n">
+        <v>776.3743065850648</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>258</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-244.3863891844487</v>
+      </c>
+      <c r="D23" t="n">
+        <v>773.0884923979457</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>242</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-265.5715675495114</v>
+      </c>
+      <c r="D24" t="n">
+        <v>803.52099804616</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>232</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-298.5628862439069</v>
+      </c>
+      <c r="D25" t="n">
+        <v>747.5962385080012</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>229</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-328.1748673058801</v>
+      </c>
+      <c r="D26" t="n">
+        <v>742.6332876696666</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>226</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-313.0076030689165</v>
+      </c>
+      <c r="D27" t="n">
+        <v>744.6877463809692</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>222</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-297.7564900081931</v>
+      </c>
+      <c r="D28" t="n">
+        <v>774.5643968563959</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>219</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-346.9706668144178</v>
+      </c>
+      <c r="D29" t="n">
+        <v>745.8075560074816</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>216</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-315.6527605634158</v>
+      </c>
+      <c r="D30" t="n">
+        <v>712.6522609359782</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>213</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-336.0619102992006</v>
+      </c>
+      <c r="D31" t="n">
+        <v>692.5344235247335</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>210</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-314.1942586523954</v>
+      </c>
+      <c r="D32" t="n">
+        <v>741.8145929054431</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>206</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-321.1811488833739</v>
+      </c>
+      <c r="D33" t="n">
+        <v>744.577206806312</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45284.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>203</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-312.5700264369655</v>
+      </c>
+      <c r="D34" t="n">
+        <v>763.9408292293723</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>200</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-314.6993022081697</v>
+      </c>
+      <c r="D35" t="n">
+        <v>725.3057276706595</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>197</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-338.3580070340769</v>
+      </c>
+      <c r="D36" t="n">
+        <v>716.5363566912027</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>194</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-418.5793511659029</v>
+      </c>
+      <c r="D37" t="n">
+        <v>700.8416347313912</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>190</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-349.0242475536018</v>
+      </c>
+      <c r="D38" t="n">
+        <v>703.4539735593413</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>187</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-362.3196754850358</v>
+      </c>
+      <c r="D39" t="n">
+        <v>695.1373876945413</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B098Q4M4WH_po_data.xlsx
+++ b/po_analysis_by_asin/B098Q4M4WH_po_data.xlsx
@@ -821,7 +821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -840,16 +840,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -858,12 +848,6 @@
       <c r="B2" t="n">
         <v>354</v>
       </c>
-      <c r="C2" t="n">
-        <v>-208.2286980937472</v>
-      </c>
-      <c r="D2" t="n">
-        <v>868.6312420980323</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -872,12 +856,6 @@
       <c r="B3" t="n">
         <v>351</v>
       </c>
-      <c r="C3" t="n">
-        <v>-187.1672404535002</v>
-      </c>
-      <c r="D3" t="n">
-        <v>899.0171705489258</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -886,12 +864,6 @@
       <c r="B4" t="n">
         <v>347</v>
       </c>
-      <c r="C4" t="n">
-        <v>-178.0778418750713</v>
-      </c>
-      <c r="D4" t="n">
-        <v>911.6868974689785</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -900,12 +872,6 @@
       <c r="B5" t="n">
         <v>344</v>
       </c>
-      <c r="C5" t="n">
-        <v>-195.1542428914131</v>
-      </c>
-      <c r="D5" t="n">
-        <v>881.7218199648644</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -914,12 +880,6 @@
       <c r="B6" t="n">
         <v>331</v>
       </c>
-      <c r="C6" t="n">
-        <v>-184.8471530849855</v>
-      </c>
-      <c r="D6" t="n">
-        <v>862.6603246326122</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -928,12 +888,6 @@
       <c r="B7" t="n">
         <v>328</v>
       </c>
-      <c r="C7" t="n">
-        <v>-184.1579277638263</v>
-      </c>
-      <c r="D7" t="n">
-        <v>831.01626703895</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -942,12 +896,6 @@
       <c r="B8" t="n">
         <v>325</v>
       </c>
-      <c r="C8" t="n">
-        <v>-196.7439576609266</v>
-      </c>
-      <c r="D8" t="n">
-        <v>875.1104932552884</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -956,12 +904,6 @@
       <c r="B9" t="n">
         <v>322</v>
       </c>
-      <c r="C9" t="n">
-        <v>-201.6306804453953</v>
-      </c>
-      <c r="D9" t="n">
-        <v>840.806588575429</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -970,12 +912,6 @@
       <c r="B10" t="n">
         <v>315</v>
       </c>
-      <c r="C10" t="n">
-        <v>-208.0951435013897</v>
-      </c>
-      <c r="D10" t="n">
-        <v>836.9955258056837</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -984,12 +920,6 @@
       <c r="B11" t="n">
         <v>309</v>
       </c>
-      <c r="C11" t="n">
-        <v>-285.2645484812236</v>
-      </c>
-      <c r="D11" t="n">
-        <v>868.7328635878393</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -998,12 +928,6 @@
       <c r="B12" t="n">
         <v>306</v>
       </c>
-      <c r="C12" t="n">
-        <v>-233.7726793957667</v>
-      </c>
-      <c r="D12" t="n">
-        <v>843.4119671615338</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1012,12 +936,6 @@
       <c r="B13" t="n">
         <v>303</v>
       </c>
-      <c r="C13" t="n">
-        <v>-242.2913035381042</v>
-      </c>
-      <c r="D13" t="n">
-        <v>846.6758932226683</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1026,12 +944,6 @@
       <c r="B14" t="n">
         <v>296</v>
       </c>
-      <c r="C14" t="n">
-        <v>-200.5449423745298</v>
-      </c>
-      <c r="D14" t="n">
-        <v>830.8418854985707</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1040,12 +952,6 @@
       <c r="B15" t="n">
         <v>293</v>
       </c>
-      <c r="C15" t="n">
-        <v>-229.0634337766708</v>
-      </c>
-      <c r="D15" t="n">
-        <v>807.8461073371377</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1054,12 +960,6 @@
       <c r="B16" t="n">
         <v>287</v>
       </c>
-      <c r="C16" t="n">
-        <v>-235.2630168877782</v>
-      </c>
-      <c r="D16" t="n">
-        <v>802.6684052008096</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1068,12 +968,6 @@
       <c r="B17" t="n">
         <v>283</v>
       </c>
-      <c r="C17" t="n">
-        <v>-218.2560847179437</v>
-      </c>
-      <c r="D17" t="n">
-        <v>799.5891463018836</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1082,12 +976,6 @@
       <c r="B18" t="n">
         <v>280</v>
       </c>
-      <c r="C18" t="n">
-        <v>-232.3248514866688</v>
-      </c>
-      <c r="D18" t="n">
-        <v>820.3218075318283</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1096,12 +984,6 @@
       <c r="B19" t="n">
         <v>277</v>
       </c>
-      <c r="C19" t="n">
-        <v>-246.141481440161</v>
-      </c>
-      <c r="D19" t="n">
-        <v>822.6901643669639</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1110,12 +992,6 @@
       <c r="B20" t="n">
         <v>274</v>
       </c>
-      <c r="C20" t="n">
-        <v>-231.89499220334</v>
-      </c>
-      <c r="D20" t="n">
-        <v>823.3090892444192</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1124,12 +1000,6 @@
       <c r="B21" t="n">
         <v>271</v>
       </c>
-      <c r="C21" t="n">
-        <v>-276.1697007748388</v>
-      </c>
-      <c r="D21" t="n">
-        <v>796.3946792781634</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1138,12 +1008,6 @@
       <c r="B22" t="n">
         <v>261</v>
       </c>
-      <c r="C22" t="n">
-        <v>-270.3877319789033</v>
-      </c>
-      <c r="D22" t="n">
-        <v>776.3743065850648</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1152,12 +1016,6 @@
       <c r="B23" t="n">
         <v>258</v>
       </c>
-      <c r="C23" t="n">
-        <v>-244.3863891844487</v>
-      </c>
-      <c r="D23" t="n">
-        <v>773.0884923979457</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1166,12 +1024,6 @@
       <c r="B24" t="n">
         <v>242</v>
       </c>
-      <c r="C24" t="n">
-        <v>-265.5715675495114</v>
-      </c>
-      <c r="D24" t="n">
-        <v>803.52099804616</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1180,12 +1032,6 @@
       <c r="B25" t="n">
         <v>232</v>
       </c>
-      <c r="C25" t="n">
-        <v>-298.5628862439069</v>
-      </c>
-      <c r="D25" t="n">
-        <v>747.5962385080012</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1194,12 +1040,6 @@
       <c r="B26" t="n">
         <v>229</v>
       </c>
-      <c r="C26" t="n">
-        <v>-328.1748673058801</v>
-      </c>
-      <c r="D26" t="n">
-        <v>742.6332876696666</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1208,12 +1048,6 @@
       <c r="B27" t="n">
         <v>226</v>
       </c>
-      <c r="C27" t="n">
-        <v>-313.0076030689165</v>
-      </c>
-      <c r="D27" t="n">
-        <v>744.6877463809692</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1222,12 +1056,6 @@
       <c r="B28" t="n">
         <v>222</v>
       </c>
-      <c r="C28" t="n">
-        <v>-297.7564900081931</v>
-      </c>
-      <c r="D28" t="n">
-        <v>774.5643968563959</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1236,12 +1064,6 @@
       <c r="B29" t="n">
         <v>219</v>
       </c>
-      <c r="C29" t="n">
-        <v>-346.9706668144178</v>
-      </c>
-      <c r="D29" t="n">
-        <v>745.8075560074816</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1250,12 +1072,6 @@
       <c r="B30" t="n">
         <v>216</v>
       </c>
-      <c r="C30" t="n">
-        <v>-315.6527605634158</v>
-      </c>
-      <c r="D30" t="n">
-        <v>712.6522609359782</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1264,12 +1080,6 @@
       <c r="B31" t="n">
         <v>213</v>
       </c>
-      <c r="C31" t="n">
-        <v>-336.0619102992006</v>
-      </c>
-      <c r="D31" t="n">
-        <v>692.5344235247335</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1278,12 +1088,6 @@
       <c r="B32" t="n">
         <v>210</v>
       </c>
-      <c r="C32" t="n">
-        <v>-314.1942586523954</v>
-      </c>
-      <c r="D32" t="n">
-        <v>741.8145929054431</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1292,12 +1096,6 @@
       <c r="B33" t="n">
         <v>206</v>
       </c>
-      <c r="C33" t="n">
-        <v>-321.1811488833739</v>
-      </c>
-      <c r="D33" t="n">
-        <v>744.577206806312</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1306,12 +1104,6 @@
       <c r="B34" t="n">
         <v>203</v>
       </c>
-      <c r="C34" t="n">
-        <v>-312.5700264369655</v>
-      </c>
-      <c r="D34" t="n">
-        <v>763.9408292293723</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1320,12 +1112,6 @@
       <c r="B35" t="n">
         <v>200</v>
       </c>
-      <c r="C35" t="n">
-        <v>-314.6993022081697</v>
-      </c>
-      <c r="D35" t="n">
-        <v>725.3057276706595</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1334,12 +1120,6 @@
       <c r="B36" t="n">
         <v>197</v>
       </c>
-      <c r="C36" t="n">
-        <v>-338.3580070340769</v>
-      </c>
-      <c r="D36" t="n">
-        <v>716.5363566912027</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1348,12 +1128,6 @@
       <c r="B37" t="n">
         <v>194</v>
       </c>
-      <c r="C37" t="n">
-        <v>-418.5793511659029</v>
-      </c>
-      <c r="D37" t="n">
-        <v>700.8416347313912</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1362,12 +1136,6 @@
       <c r="B38" t="n">
         <v>190</v>
       </c>
-      <c r="C38" t="n">
-        <v>-349.0242475536018</v>
-      </c>
-      <c r="D38" t="n">
-        <v>703.4539735593413</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1375,12 +1143,6 @@
       </c>
       <c r="B39" t="n">
         <v>187</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-362.3196754850358</v>
-      </c>
-      <c r="D39" t="n">
-        <v>695.1373876945413</v>
       </c>
     </row>
   </sheetData>
